--- a/excel-tools/Exceedance Probability Spreadsheet AEP_v4.xlsx
+++ b/excel-tools/Exceedance Probability Spreadsheet AEP_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Library\Automation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\BGER\PER\RPRT\ryan-tools\excel-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E0A984-C7AB-46A6-B404-14CAE79F627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4565B1-FCE0-442E-85CA-2A44FF970EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prob" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Probability assuming multiple flood events per year</t>
   </si>
@@ -230,7 +230,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -525,7 +525,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,7 +568,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>220442</xdr:colOff>
+      <xdr:colOff>63072</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>48376</xdr:rowOff>
     </xdr:to>
@@ -612,7 +612,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>424985</xdr:colOff>
+      <xdr:colOff>424984</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>68197</xdr:rowOff>
     </xdr:to>
@@ -939,14 +939,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="12" customWidth="1"/>
   </cols>
@@ -1357,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="15">
-        <f>ROUND(1-EXP(-E18/D18),3)</f>
+        <f t="shared" ref="F18:F26" si="5">ROUND(1-EXP(-E18/D18),3)</f>
         <v>0.03</v>
       </c>
       <c r="G18" s="2"/>
@@ -1383,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="15">
-        <f>ROUND(1-EXP(-E19/D19),3)</f>
+        <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
       <c r="G19" s="2"/>
@@ -1409,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="15">
-        <f>ROUND(1-EXP(-E20/D20),3)</f>
+        <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
       <c r="G20" s="2"/>
@@ -1435,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="15">
-        <f>ROUND(1-EXP(-E21/D21),3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
@@ -1461,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="15">
-        <f>ROUND(1-EXP(-E22/D22),3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G22" s="2"/>
@@ -1487,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="15">
-        <f>ROUND(1-EXP(-E23/D23),3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G23" s="2"/>
@@ -1513,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="15">
-        <f>ROUND(1-EXP(-E24/D24),3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G24" s="2"/>
@@ -1539,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="15">
-        <f>ROUND(1-EXP(-E25/D25),3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G25" s="2"/>
@@ -1565,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="15">
-        <f>ROUND(1-EXP(-E26/D26),3)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G26" s="2"/>
@@ -1673,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F74E783-1BD1-48BE-A699-173EBBBA980B}">
-  <dimension ref="B1:Q118"/>
+  <dimension ref="B2:Q118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,11 +1686,6 @@
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>24</v>
